--- a/leetcode_1_check_huxiaoman.xlsx
+++ b/leetcode_1_check_huxiaoman.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/10_leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EF73B1-F030-D24F-A139-4500F943D406}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DB1F48-A104-EB48-9C6B-39897ADEDCB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
+    <workbookView xWindow="29800" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="110">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,15 +336,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>譬如：没有想到最优解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否用了多种解法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>运行时间过长</t>
+    <t>固定两个指针，移动其他两个，想了解复杂度低的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新开辟了空间，以后试下删除元素方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不太理解，希望老师讲解下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runtime error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">编程数组不太懂， </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回溯法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，dfs</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划，分治法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用的暴力方法，待解锁更好的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分法不太懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码有点问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用排序，其他方法？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -352,7 +407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -394,8 +449,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,7 +466,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -436,10 +540,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -759,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="176" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -789,7 +917,7 @@
         <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
         <v>96</v>
@@ -848,9 +976,6 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -882,6 +1007,15 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
@@ -893,9 +1027,21 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -904,9 +1050,21 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -915,9 +1073,18 @@
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>252</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -926,9 +1093,18 @@
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>253</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -937,9 +1113,18 @@
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>352</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -948,9 +1133,21 @@
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -959,9 +1156,21 @@
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -970,9 +1179,21 @@
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -981,12 +1202,21 @@
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>152</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -995,9 +1225,18 @@
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
         <v>239</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1006,9 +1245,21 @@
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
         <v>295</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1018,8 +1269,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4">
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
         <v>228</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1029,8 +1280,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4">
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
         <v>163</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1040,8 +1291,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4">
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
         <v>325</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1051,8 +1302,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4">
+    <row r="22" spans="1:7">
+      <c r="A22" s="3">
         <v>209</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1062,8 +1313,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4">
+    <row r="23" spans="1:7">
+      <c r="A23" s="3">
         <v>238</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1073,8 +1324,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4">
+    <row r="24" spans="1:7">
+      <c r="A24" s="3">
         <v>128</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1084,8 +1335,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4">
+    <row r="25" spans="1:7">
+      <c r="A25" s="3">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1095,9 +1346,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4">
-        <v>89</v>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>33</v>
@@ -1105,9 +1356,12 @@
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4">
+      <c r="G26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3">
         <v>189</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1117,8 +1371,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4">
+    <row r="28" spans="1:7">
+      <c r="A28" s="3">
         <v>81</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1128,8 +1382,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3">
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
         <v>88</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1138,9 +1392,12 @@
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="G29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10">
         <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1149,9 +1406,13 @@
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3">
+      <c r="D30" s="11"/>
+      <c r="G30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="10">
         <v>283</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1160,9 +1421,10 @@
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3">
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10">
         <v>376</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1173,7 +1435,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="3">
+      <c r="A33" s="9">
         <v>280</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1184,7 +1446,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="3">
+      <c r="A34" s="9">
         <v>324</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1195,7 +1457,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="3">
+      <c r="A35" s="9">
         <v>215</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1206,7 +1468,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="3">
+      <c r="A36" s="9">
         <v>287</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1217,7 +1479,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="3">
+      <c r="A37" s="9">
         <v>334</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1228,7 +1490,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="3">
+      <c r="A38" s="9">
         <v>400</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1239,7 +1501,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="3">
+      <c r="A39" s="9">
         <v>387</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1250,7 +1512,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="3">
+      <c r="A40" s="9">
         <v>164</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1261,7 +1523,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="3">
+      <c r="A41" s="9">
         <v>347</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1272,7 +1534,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="3">
+      <c r="A42" s="9">
         <v>243</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1283,7 +1545,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="3">
+      <c r="A43" s="9">
         <v>244</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1294,7 +1556,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="3">
+      <c r="A44" s="7">
         <v>245</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1305,7 +1567,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
+      <c r="A45" s="8">
         <v>11</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1316,7 +1578,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
+      <c r="A46" s="8">
         <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1327,7 +1589,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
+      <c r="A47" s="8">
         <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1338,7 +1600,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
+      <c r="A48" s="8">
         <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1349,7 +1611,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
+      <c r="A49" s="8">
         <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -1360,7 +1622,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
+      <c r="A50" s="8">
         <v>243</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1371,7 +1633,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
+      <c r="A51" s="8">
         <v>244</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -1382,7 +1644,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
+      <c r="A52" s="8">
         <v>245</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -1393,7 +1655,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
+      <c r="A53" s="8">
         <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -1404,7 +1666,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
+      <c r="A54" s="8">
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -1415,7 +1677,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
+      <c r="A55" s="8">
         <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -1426,7 +1688,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
+      <c r="A56" s="6">
         <v>311</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -1437,7 +1699,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
+      <c r="A57" s="6">
         <v>36</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -1448,7 +1710,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
+      <c r="A58" s="6">
         <v>37</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -1459,7 +1721,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
+      <c r="A59" s="6">
         <v>217</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -1470,7 +1732,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
+      <c r="A60" s="6">
         <v>219</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -1481,7 +1743,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
+      <c r="A61" s="6">
         <v>380</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -1492,7 +1754,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
+      <c r="A62" s="6">
         <v>381</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -1503,7 +1765,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
+      <c r="A63" s="6">
         <v>31</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -1514,7 +1776,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
+      <c r="A64" s="6">
         <v>33</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -1525,7 +1787,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
+      <c r="A65" s="6">
         <v>81</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -1536,7 +1798,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
+      <c r="A66" s="6">
         <v>34</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -1547,7 +1809,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
+      <c r="A67" s="6">
         <v>35</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -1558,7 +1820,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
+      <c r="A68" s="5">
         <v>74</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -1569,7 +1831,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
+      <c r="A69" s="5">
         <v>79</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -1580,7 +1842,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
+      <c r="A70" s="5">
         <v>153</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -1591,7 +1853,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
+      <c r="A71" s="5">
         <v>154</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -1602,7 +1864,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
+      <c r="A72" s="5">
         <v>39</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -1613,7 +1875,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
+      <c r="A73" s="5">
         <v>40</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -1624,7 +1886,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
+      <c r="A74" s="5">
         <v>216</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -1635,7 +1897,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
+      <c r="A75" s="5">
         <v>45</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -1646,7 +1908,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
+      <c r="A76" s="5">
         <v>55</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -1657,7 +1919,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
+      <c r="A77" s="5">
         <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -1668,7 +1930,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
+      <c r="A78" s="5">
         <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -1679,7 +1941,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
+      <c r="A79" s="5">
         <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -1690,7 +1952,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
+      <c r="A80" s="4">
         <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -1701,7 +1963,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
+      <c r="A81" s="4">
         <v>162</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -1712,7 +1974,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
+      <c r="A82" s="4">
         <v>169</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -1723,7 +1985,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
+      <c r="A83" s="4">
         <v>229</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -1734,7 +1996,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
+      <c r="A84" s="4">
         <v>26</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -1745,7 +2007,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
+      <c r="A85" s="4">
         <v>27</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -1756,7 +2018,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
+      <c r="A86" s="4">
         <v>80</v>
       </c>
       <c r="B86" s="2" t="s">

--- a/leetcode_1_check_huxiaoman.xlsx
+++ b/leetcode_1_check_huxiaoman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DB1F48-A104-EB48-9C6B-39897ADEDCB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C584FD8-6128-3B49-9708-4CCB04940BC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29800" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
+    <workbookView xWindow="30220" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="113">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,6 +400,18 @@
   </si>
   <si>
     <t>使用排序，其他方法？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接排序后根据id返回结果没有看其他的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是很理解，希望讲解下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考的这个程序  (len(nums)+1) 不明白+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +469,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,12 +515,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,7 +573,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -887,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="176" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="176" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1421,7 +1427,6 @@
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="10">
@@ -1434,8 +1439,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="9">
+    <row r="33" spans="1:7">
+      <c r="A33" s="10">
         <v>280</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1445,8 +1450,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="9">
+    <row r="34" spans="1:7">
+      <c r="A34" s="10">
         <v>324</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1456,8 +1461,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="9">
+    <row r="35" spans="1:7">
+      <c r="A35" s="10">
         <v>215</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1466,9 +1471,12 @@
       <c r="C35" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="9">
+      <c r="G35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="10">
         <v>287</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1478,8 +1486,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="9">
+    <row r="37" spans="1:7">
+      <c r="A37" s="10">
         <v>334</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1489,8 +1497,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="9">
+    <row r="38" spans="1:7">
+      <c r="A38" s="10">
         <v>400</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1499,9 +1507,13 @@
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="9">
+      <c r="D38" s="11"/>
+      <c r="G38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="10">
         <v>387</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1511,8 +1523,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="9">
+    <row r="40" spans="1:7">
+      <c r="A40" s="10">
         <v>164</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1522,8 +1534,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="9">
+    <row r="41" spans="1:7">
+      <c r="A41" s="10">
         <v>347</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1532,9 +1544,12 @@
       <c r="C41" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="9">
+      <c r="G41" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="10">
         <v>243</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1544,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:7">
       <c r="A43" s="9">
         <v>244</v>
       </c>
@@ -1555,7 +1570,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:7">
       <c r="A44" s="7">
         <v>245</v>
       </c>
@@ -1566,7 +1581,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:7">
       <c r="A45" s="8">
         <v>11</v>
       </c>
@@ -1577,7 +1592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:7">
       <c r="A46" s="8">
         <v>41</v>
       </c>
@@ -1588,7 +1603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:7">
       <c r="A47" s="8">
         <v>42</v>
       </c>
@@ -1599,7 +1614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:7">
       <c r="A48" s="8">
         <v>84</v>
       </c>
@@ -2116,6 +2131,7 @@
     <hyperlink ref="B84" r:id="rId83" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array" xr:uid="{AAFC8D9D-822F-5C47-948D-AF0B0B41C7EA}"/>
     <hyperlink ref="B85" r:id="rId84" display="https://leetcode.com/problems/remove-element" xr:uid="{484E48E8-9BA0-1C47-8B78-A0D8F6F1F932}"/>
     <hyperlink ref="B86" r:id="rId85" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array-ii" xr:uid="{4A843ECB-3E79-0043-B668-F1C400C7C14D}"/>
+    <hyperlink ref="G41" r:id="rId86" display="参考的这个程序" xr:uid="{9DA4C38E-6115-F544-9C55-8F9C0A1F92F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode_1_check_huxiaoman.xlsx
+++ b/leetcode_1_check_huxiaoman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C584FD8-6128-3B49-9708-4CCB04940BC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67289DBD-F550-E44C-9ACA-A2CBEB31CA9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30220" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="118">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,12 +414,32 @@
     <t>参考的这个程序  (len(nums)+1) 不明白+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>不太理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有做出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*3的小矩阵的判断还是不太明白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有重复元素3的题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -468,8 +488,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,25 +524,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,22 +580,22 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -893,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="176" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="176" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1389,7 +1411,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="10">
+      <c r="A29" s="7">
         <v>88</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1403,7 +1425,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="10">
+      <c r="A30" s="7">
         <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1412,13 +1434,13 @@
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="11"/>
+      <c r="D30" s="8"/>
       <c r="G30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="10">
+      <c r="A31" s="7">
         <v>283</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1429,7 +1451,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="10">
+      <c r="A32" s="7">
         <v>376</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1440,7 +1462,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="10">
+      <c r="A33" s="7">
         <v>280</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1451,7 +1473,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="10">
+      <c r="A34" s="7">
         <v>324</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1462,7 +1484,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="10">
+      <c r="A35" s="7">
         <v>215</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1476,7 +1498,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="10">
+      <c r="A36" s="7">
         <v>287</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1487,7 +1509,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="10">
+      <c r="A37" s="7">
         <v>334</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1498,7 +1520,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="10">
+      <c r="A38" s="7">
         <v>400</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1507,13 +1529,13 @@
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="11"/>
+      <c r="D38" s="8"/>
       <c r="G38" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="10">
+      <c r="A39" s="7">
         <v>387</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1524,7 +1546,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="10">
+      <c r="A40" s="7">
         <v>164</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1535,7 +1557,7 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="10">
+      <c r="A41" s="7">
         <v>347</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1544,12 +1566,12 @@
       <c r="C41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="10">
+      <c r="A42" s="7">
         <v>243</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1560,7 +1582,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="9">
+      <c r="A43" s="7">
         <v>244</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1582,7 +1604,7 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="8">
+      <c r="A45" s="3">
         <v>11</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1593,7 +1615,7 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="8">
+      <c r="A46" s="3">
         <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1604,7 +1626,7 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="8">
+      <c r="A47" s="3">
         <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1613,9 +1635,13 @@
       <c r="C47" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D47" s="11"/>
+      <c r="G47" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="8">
+      <c r="A48" s="6">
         <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1624,9 +1650,13 @@
       <c r="C48" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="8">
+      <c r="D48" s="8"/>
+      <c r="G48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="6">
         <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -1635,9 +1665,10 @@
       <c r="C49" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="8">
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="3">
         <v>243</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1647,8 +1678,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="8">
+    <row r="51" spans="1:7">
+      <c r="A51" s="3">
         <v>244</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -1658,8 +1689,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="8">
+    <row r="52" spans="1:7">
+      <c r="A52" s="3">
         <v>245</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -1669,8 +1700,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="8">
+    <row r="53" spans="1:7">
+      <c r="A53" s="3">
         <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -1680,19 +1711,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="8">
+    <row r="54" spans="1:7">
+      <c r="A54" s="3">
         <v>54</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="8">
+    <row r="55" spans="1:7">
+      <c r="A55" s="3">
         <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -1702,8 +1733,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="6">
+    <row r="56" spans="1:7">
+      <c r="A56" s="3">
         <v>311</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -1713,8 +1744,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="6">
+    <row r="57" spans="1:7">
+      <c r="A57" s="3">
         <v>36</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -1723,9 +1754,12 @@
       <c r="C57" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="6">
+      <c r="G57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="3">
         <v>37</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -1735,8 +1769,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="6">
+    <row r="59" spans="1:7">
+      <c r="A59" s="3">
         <v>217</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -1746,8 +1780,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="6">
+    <row r="60" spans="1:7">
+      <c r="A60" s="3">
         <v>219</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -1756,9 +1790,12 @@
       <c r="C60" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="6">
+      <c r="G60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="3">
         <v>380</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -1768,8 +1805,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="6">
+    <row r="62" spans="1:7">
+      <c r="A62" s="3">
         <v>381</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -1779,8 +1816,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="6">
+    <row r="63" spans="1:7">
+      <c r="A63" s="8">
         <v>31</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -1790,73 +1827,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="6">
+    <row r="64" spans="1:7">
+      <c r="A64" s="3">
         <v>33</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>33</v>
+      <c r="B64" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="6">
+    <row r="65" spans="1:4">
+      <c r="A65" s="3">
         <v>81</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="6">
+    <row r="66" spans="1:4">
+      <c r="A66" s="3">
         <v>34</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="6">
+    <row r="67" spans="1:4">
+      <c r="A67" s="3">
         <v>35</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="5">
+    <row r="68" spans="1:4">
+      <c r="A68" s="3">
         <v>74</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" s="5">
         <v>79</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" s="5">
         <v>153</v>
       </c>
@@ -1866,8 +1903,9 @@
       <c r="C70" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="5">
         <v>154</v>
       </c>
@@ -1878,18 +1916,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" s="5">
         <v>39</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" s="5">
         <v>40</v>
       </c>
@@ -1900,7 +1938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" s="5">
         <v>216</v>
       </c>
@@ -1911,7 +1949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" s="5">
         <v>45</v>
       </c>
@@ -1922,7 +1960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" s="5">
         <v>55</v>
       </c>
@@ -1933,7 +1971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" s="5">
         <v>121</v>
       </c>
@@ -1944,7 +1982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" s="5">
         <v>122</v>
       </c>
@@ -1955,7 +1993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79" s="5">
         <v>123</v>
       </c>
@@ -1966,7 +2004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" s="4">
         <v>126</v>
       </c>

--- a/leetcode_1_check_huxiaoman.xlsx
+++ b/leetcode_1_check_huxiaoman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67289DBD-F550-E44C-9ACA-A2CBEB31CA9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908BDB87-1C80-2146-8D6E-CA75707CB6B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="120">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>Find First and Last Position of Element in Sorted Array    </t>
-  </si>
-  <si>
-    <t>Search Insert Position    </t>
   </si>
   <si>
     <t>Search a 2D Matrix    </t>
@@ -419,10 +416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>没有做出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3*3的小矩阵的判断还是不太明白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,6 +425,22 @@
   </si>
   <si>
     <t>Search in Rotated Sorted Array    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不太理解，老师讲一下就很棒了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search Insert Position    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -496,8 +505,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,25 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,7 +558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -574,28 +574,25 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -913,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="176" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="144" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -930,25 +927,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
         <v>95</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -962,7 +959,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -981,8 +978,14 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1065,11 +1068,11 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3">
+      <c r="A8" s="7">
         <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1088,11 +1091,11 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1112,7 +1115,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>252</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1132,7 +1135,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3">
+      <c r="A11" s="7">
         <v>253</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1141,7 +1144,7 @@
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
       <c r="E11" s="1">
@@ -1152,7 +1155,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>352</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1161,8 +1164,8 @@
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
+      <c r="D12" s="7">
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1171,11 +1174,11 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3">
+      <c r="A13" s="7">
         <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1184,7 +1187,7 @@
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>1</v>
       </c>
       <c r="E13" s="1">
@@ -1194,11 +1197,11 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3">
+      <c r="A14" s="7">
         <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1217,11 +1220,11 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3">
+      <c r="A15" s="7">
         <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1240,11 +1243,11 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3">
+      <c r="A16" s="7">
         <v>152</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1264,7 +1267,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3">
+      <c r="A17" s="7">
         <v>239</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1283,11 +1286,11 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3">
+      <c r="A18" s="7">
         <v>295</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1298,7 +1301,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3">
+      <c r="A19" s="7">
         <v>228</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1309,7 +1312,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3">
+      <c r="A20" s="7">
         <v>163</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1320,7 +1323,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="3">
+      <c r="A21" s="7">
         <v>325</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1331,7 +1334,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="3">
+      <c r="A22" s="7">
         <v>209</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1342,7 +1345,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3">
+      <c r="A23" s="7">
         <v>238</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1353,7 +1356,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="3">
+      <c r="A24" s="7">
         <v>128</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1364,7 +1367,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3">
+      <c r="A25" s="7">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1375,7 +1378,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="3">
+      <c r="A26" s="7">
         <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1385,11 +1388,11 @@
         <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="3">
+      <c r="A27" s="7">
         <v>189</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1400,7 +1403,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="3">
+      <c r="A28" s="7">
         <v>81</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1411,7 +1414,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="7">
+      <c r="A29" s="8">
         <v>88</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1421,11 +1424,11 @@
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="7">
+      <c r="A30" s="8">
         <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1434,13 +1437,13 @@
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="7"/>
       <c r="G30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="7">
+      <c r="A31" s="8">
         <v>283</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1451,7 +1454,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="7">
+      <c r="A32" s="8">
         <v>376</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1462,7 +1465,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>280</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1473,7 +1476,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="7">
+      <c r="A34" s="8">
         <v>324</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1484,7 +1487,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="7">
+      <c r="A35" s="8">
         <v>215</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1494,11 +1497,11 @@
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="7">
+      <c r="A36" s="8">
         <v>287</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1509,7 +1512,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="7">
+      <c r="A37" s="8">
         <v>334</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1520,7 +1523,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="7">
+      <c r="A38" s="10">
         <v>400</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1529,13 +1532,16 @@
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
       <c r="G38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="7">
+      <c r="A39" s="8">
         <v>387</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1546,7 +1552,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="7">
+      <c r="A40" s="8">
         <v>164</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1557,7 +1563,7 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="7">
+      <c r="A41" s="8">
         <v>347</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1566,12 +1572,12 @@
       <c r="C41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>112</v>
+      <c r="G41" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="7">
+      <c r="A42" s="8">
         <v>243</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1582,7 +1588,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="7">
+      <c r="A43" s="8">
         <v>244</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1591,9 +1597,10 @@
       <c r="C43" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="7">
+      <c r="A44" s="8">
         <v>245</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1602,9 +1609,10 @@
       <c r="C44" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="3">
+      <c r="A45" s="7">
         <v>11</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1613,9 +1621,10 @@
       <c r="C45" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="3">
+      <c r="A46" s="7">
         <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1624,9 +1633,10 @@
       <c r="C46" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="3">
+      <c r="A47" s="7">
         <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1635,13 +1645,16 @@
       <c r="C47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="11"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
       <c r="G47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1650,13 +1663,16 @@
       <c r="C48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="8"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
       <c r="G48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -1665,10 +1681,10 @@
       <c r="C49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="8"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="3">
+      <c r="A50" s="7">
         <v>243</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1679,7 +1695,7 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="3">
+      <c r="A51" s="7">
         <v>244</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -1690,7 +1706,7 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="3">
+      <c r="A52" s="7">
         <v>245</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -1701,7 +1717,7 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="3">
+      <c r="A53" s="7">
         <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -1712,10 +1728,10 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="3">
+      <c r="A54" s="7">
         <v>54</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -1723,7 +1739,7 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="3">
+      <c r="A55" s="7">
         <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -1734,7 +1750,7 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="3">
+      <c r="A56" s="7">
         <v>311</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -1745,7 +1761,7 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="3">
+      <c r="A57" s="7">
         <v>36</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -1754,12 +1770,13 @@
       <c r="C57" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="D57" s="7"/>
       <c r="G57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="3">
+      <c r="A58" s="7">
         <v>37</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -1768,9 +1785,10 @@
       <c r="C58" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="3">
+      <c r="A59" s="7">
         <v>217</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -1779,9 +1797,10 @@
       <c r="C59" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="3">
+      <c r="A60" s="7">
         <v>219</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -1790,12 +1809,13 @@
       <c r="C60" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D60" s="7"/>
       <c r="G60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="3">
+      <c r="A61" s="7">
         <v>380</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -1804,9 +1824,10 @@
       <c r="C61" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="3">
+      <c r="A62" s="7">
         <v>381</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -1815,9 +1836,10 @@
       <c r="C62" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="8">
+      <c r="A63" s="4">
         <v>31</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -1826,260 +1848,299 @@
       <c r="C63" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="3">
+      <c r="A64" s="7">
         <v>33</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="7">
+        <v>81</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="7">
+        <v>34</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="7">
+        <v>35</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="3">
-        <v>81</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="3">
-        <v>34</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="3">
-        <v>35</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="3">
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="7">
         <v>74</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="3">
+        <v>79</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="5">
-        <v>79</v>
-      </c>
-      <c r="B69" s="12" t="s">
+      <c r="C69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="G69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="4">
+        <v>153</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="5">
-        <v>153</v>
-      </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="3">
+        <v>154</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="5">
-        <v>154</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="5">
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="4">
         <v>39</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="3">
+        <v>40</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="5">
-        <v>40</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="3">
+        <v>216</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="5">
-        <v>216</v>
-      </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="7">
+        <v>45</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="5">
-        <v>45</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="5">
+      <c r="D75" s="7"/>
+      <c r="G75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="7">
         <v>55</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="7">
+        <v>121</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="5">
-        <v>121</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="5">
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="7">
         <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="5">
+    <row r="79" spans="1:7">
+      <c r="A79" s="7">
         <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="G79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="4">
         <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="4">
+      <c r="D80" s="7"/>
+      <c r="G80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="7">
         <v>162</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="7">
+        <v>169</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="4">
-        <v>169</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="4">
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="7">
         <v>229</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="7">
+        <v>26</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="4">
-        <v>26</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="4">
+    <row r="85" spans="1:6">
+      <c r="A85" s="7">
         <v>27</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="4">
+    <row r="86" spans="1:6">
+      <c r="A86" s="7">
         <v>80</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2157,13 +2218,13 @@
     <hyperlink ref="B82" r:id="rId71" display="https://leetcode.com/problems/majority-element" xr:uid="{09B88CA7-9F52-EC49-8AF5-4F37A37DFA52}"/>
     <hyperlink ref="B70" r:id="rId72" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array" xr:uid="{BA26B434-8DBD-7541-BF0D-31DA3EBF4E72}"/>
     <hyperlink ref="B71" r:id="rId73" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii" xr:uid="{6AAE74F4-7D87-9F40-8EFC-6087FBC6E126}"/>
-    <hyperlink ref="B65" r:id="rId74" display="https://leetcode.com/problems/sort-colors" xr:uid="{DBDB7BBD-3DA4-B24C-9EE9-38D75497C000}"/>
-    <hyperlink ref="B64" r:id="rId75" display="Wiggle Subsequence" xr:uid="{B7B944FC-7934-224A-A5BD-CE8B6950EF3A}"/>
-    <hyperlink ref="B66" r:id="rId76" display="Wiggle Sort" xr:uid="{ED3023CE-6F16-CC43-9166-814D9F85F58A}"/>
-    <hyperlink ref="B67" r:id="rId77" display="https://leetcode.com/problems/next-permutation" xr:uid="{13AFA88D-D003-CA45-BAF3-C3992698C7B9}"/>
-    <hyperlink ref="B68" r:id="rId78" display="https://leetcode.com/problems/combination-sum" xr:uid="{E3AE4668-B084-DE45-8DC4-1544F14795D6}"/>
-    <hyperlink ref="B69" r:id="rId79" display="https://leetcode.com/problems/combination-sum-ii" xr:uid="{A1422E8D-0641-F346-ABD9-13A355799FF5}"/>
-    <hyperlink ref="B72" r:id="rId80" display="https://leetcode.com/problems/largest-rectangle-in-histogram" xr:uid="{2DE9168D-2C4D-6343-B4F9-5A15B3FFD70D}"/>
+    <hyperlink ref="B65" r:id="rId74" xr:uid="{DBDB7BBD-3DA4-B24C-9EE9-38D75497C000}"/>
+    <hyperlink ref="B64" r:id="rId75" xr:uid="{B7B944FC-7934-224A-A5BD-CE8B6950EF3A}"/>
+    <hyperlink ref="B66" r:id="rId76" xr:uid="{ED3023CE-6F16-CC43-9166-814D9F85F58A}"/>
+    <hyperlink ref="B67" r:id="rId77" xr:uid="{13AFA88D-D003-CA45-BAF3-C3992698C7B9}"/>
+    <hyperlink ref="B68" r:id="rId78" xr:uid="{E3AE4668-B084-DE45-8DC4-1544F14795D6}"/>
+    <hyperlink ref="B69" r:id="rId79" xr:uid="{A1422E8D-0641-F346-ABD9-13A355799FF5}"/>
+    <hyperlink ref="B72" r:id="rId80" xr:uid="{2DE9168D-2C4D-6343-B4F9-5A15B3FFD70D}"/>
     <hyperlink ref="B74" r:id="rId81" display="https://leetcode.com/problems/combination-sum-iii" xr:uid="{BFBB6C34-0DEB-7E45-8DF4-05537DB839E5}"/>
     <hyperlink ref="B83" r:id="rId82" display="https://leetcode.com/problems/majority-element-ii" xr:uid="{10CF9596-8200-4041-BFC6-8393E0137997}"/>
     <hyperlink ref="B84" r:id="rId83" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array" xr:uid="{AAFC8D9D-822F-5C47-948D-AF0B0B41C7EA}"/>

--- a/leetcode_1_check_huxiaoman.xlsx
+++ b/leetcode_1_check_huxiaoman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908BDB87-1C80-2146-8D6E-CA75707CB6B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57738DC6-7BA6-A84C-8200-D8D761FD1C6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -912,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="144" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1839,7 +1839,7 @@
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="4">
+      <c r="A63" s="7">
         <v>31</v>
       </c>
       <c r="B63" s="2" t="s">

--- a/leetcode_1_check_huxiaoman.xlsx
+++ b/leetcode_1_check_huxiaoman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57738DC6-7BA6-A84C-8200-D8D761FD1C6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A19699-E553-324F-B8D7-E838E867933E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>3Sum Smaller    </t>
-  </si>
-  <si>
-    <t>4Sum    </t>
   </si>
   <si>
     <t>Merge Intervals    </t>
@@ -441,6 +438,10 @@
   </si>
   <si>
     <t>回溯法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4Sum    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,18 +516,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -571,13 +566,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -589,10 +581,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -912,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="144" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -927,25 +922,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
         <v>94</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -985,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1053,73 +1048,73 @@
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7">
-        <v>56</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="6">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="7">
-        <v>57</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6">
+        <v>252</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="7">
-        <v>252</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -1135,888 +1130,892 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>253</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
+        <v>352</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4">
-        <v>352</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6">
+        <v>78</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>90</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="7">
-        <v>78</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="6">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="7">
-        <v>90</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="7">
-        <v>53</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="6">
+        <v>152</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6">
+        <v>239</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="7">
-        <v>152</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="7">
-        <v>239</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="6">
+        <v>295</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6">
+        <v>228</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6">
+        <v>163</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6">
+        <v>325</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6">
+        <v>209</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6">
+        <v>238</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6">
+        <v>128</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="7">
-        <v>295</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="7">
-        <v>228</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="7">
-        <v>163</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="7">
-        <v>325</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="7">
-        <v>209</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="7">
-        <v>238</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="7">
-        <v>128</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="7">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7">
+    <row r="27" spans="1:7">
+      <c r="A27" s="6">
+        <v>189</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7">
-        <v>189</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>81</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7">
+        <v>88</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="8">
-        <v>88</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7">
+        <v>75</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="G30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="8">
-        <v>75</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="7">
+        <v>283</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="G30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="8">
-        <v>283</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>376</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="7">
+        <v>280</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="8">
-        <v>280</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7">
+        <v>324</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="8">
-        <v>324</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7">
+        <v>215</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="8">
-        <v>215</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="7">
+        <v>287</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="8">
-        <v>287</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="7">
+        <v>334</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="8">
-        <v>334</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="9">
+        <v>400</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="10">
-        <v>400</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <v>387</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <v>164</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="7">
+        <v>347</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="8">
-        <v>347</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="7">
+        <v>243</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="8">
-        <v>243</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="8">
+      <c r="A43" s="7">
         <v>244</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="7">
+        <v>245</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="8">
-        <v>245</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="6">
+        <v>11</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="7">
-        <v>11</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="6">
+        <v>41</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="7">
-        <v>41</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="6">
+        <v>42</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="7">
-        <v>42</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="3">
+        <v>84</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="G47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="4">
-        <v>84</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="3">
+        <v>85</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="4">
-        <v>85</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="6">
+        <v>243</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="7">
-        <v>243</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>244</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="6">
+        <v>245</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="7">
-        <v>245</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="6">
+        <v>48</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="6">
+        <v>54</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="7">
+      <c r="C54" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="6">
+        <v>73</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="6">
+        <v>311</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="6">
+        <v>36</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="G57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="6">
+        <v>37</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="7">
-        <v>54</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="7">
-        <v>73</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="7">
-        <v>311</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="7">
-        <v>36</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="G57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="7">
-        <v>37</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="6">
+        <v>217</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="7">
-        <v>217</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="7"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>219</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="7"/>
+      <c r="D60" s="6"/>
       <c r="G60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="6">
+        <v>380</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="6">
+        <v>381</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="6">
+        <v>31</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="6">
+        <v>33</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="7">
-        <v>380</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="7">
-        <v>381</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="7">
-        <v>31</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="C64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="6"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="6">
+        <v>81</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="6"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="6">
+        <v>34</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="7">
-        <v>33</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="7"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="7">
-        <v>81</v>
-      </c>
-      <c r="B65" s="11" t="s">
+      <c r="C66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="6">
         <v>35</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="7">
-        <v>34</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="7">
-        <v>35</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>117</v>
+      <c r="B67" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="7"/>
+      <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="7">
+      <c r="A68" s="6">
         <v>74</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>74</v>
+      <c r="B68" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="7"/>
+      <c r="D68" s="6"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3">
         <v>79</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="G69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="3">
+        <v>153</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="G69" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="4">
-        <v>153</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="7"/>
+      <c r="D70" s="6"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3">
         <v>154</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="3">
+        <v>39</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="7"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="4">
-        <v>39</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="C72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="7"/>
+      <c r="D72" s="6"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3">
         <v>40</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="7"/>
+      <c r="D73" s="6"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3">
         <v>216</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="3">
+        <v>45</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="7"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="7">
-        <v>45</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="G75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="6">
+        <v>55</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="7"/>
-      <c r="G75" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="7">
-        <v>55</v>
-      </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="6">
+        <v>121</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="7">
-        <v>121</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>5</v>
@@ -2026,121 +2025,121 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="7">
+      <c r="A78" s="6">
         <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="7">
+      <c r="A79" s="6">
         <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="3">
+        <v>126</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="4">
-        <v>126</v>
-      </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="G80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="6">
+        <v>162</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="7"/>
-      <c r="G80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="7">
-        <v>162</v>
-      </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="6">
+        <v>169</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="7"/>
-      <c r="F81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="7">
-        <v>169</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D82" s="7"/>
+      <c r="D82" s="6"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="7">
+      <c r="A83" s="6">
         <v>229</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="6">
+        <v>26</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="7">
-        <v>26</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="7">
+      <c r="A85" s="6">
         <v>27</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="7">
+      <c r="A86" s="6">
         <v>80</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="7"/>
+      <c r="A87" s="6"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="7"/>
+      <c r="A88" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
